--- a/LaserCali/Template.xlsx
+++ b/LaserCali/Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cong viec\A thai\thiet ke moi\phan_mem_may_tinh\LaserControl\LaserCali\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96881C02-E2D8-4F36-BA83-58771A48AC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFEA551-071F-4C49-8481-99ADF8496205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,22 +19,11 @@
     <sheet name="Danh sách chuẩn" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="183">
   <si>
     <t>mm</t>
   </si>
@@ -2019,6 +2008,12 @@
     <t>CMC
 (mm)</t>
   </si>
+  <si>
+    <t>∆T</t>
+  </si>
+  <si>
+    <t>°C</t>
+  </si>
 </sst>
 </file>
 
@@ -2538,7 +2533,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2885,32 +2880,56 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2920,9 +2939,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2938,9 +2954,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2962,44 +2975,41 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3034,26 +3044,11 @@
     <xf numFmtId="49" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3066,6 +3061,18 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3085,10 +3092,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3105,19 +3108,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3129,6 +3124,18 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -24252,10 +24259,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:BD79"/>
+  <dimension ref="A1:BF79"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="J1" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="AH10" sqref="AH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -24266,7 +24273,7 @@
     <col min="30" max="16384" width="3" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:58" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="29"/>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -24295,111 +24302,115 @@
       <c r="Z1" s="29"/>
       <c r="AA1" s="29"/>
     </row>
-    <row r="2" spans="1:56" s="4" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="138" t="s">
+    <row r="2" spans="1:58" s="4" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="138"/>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138"/>
-      <c r="X2" s="138"/>
-      <c r="Y2" s="138"/>
-      <c r="Z2" s="138"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146"/>
+      <c r="L2" s="146"/>
+      <c r="M2" s="146"/>
+      <c r="N2" s="146"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="146"/>
+      <c r="S2" s="146"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="146"/>
+      <c r="W2" s="146"/>
+      <c r="X2" s="146"/>
+      <c r="Y2" s="146"/>
+      <c r="Z2" s="146"/>
       <c r="AA2" s="29"/>
     </row>
-    <row r="3" spans="1:56" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="139" t="s">
+    <row r="3" spans="1:58" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="139"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="139"/>
-      <c r="S3" s="139"/>
-      <c r="T3" s="139"/>
-      <c r="U3" s="139"/>
-      <c r="V3" s="139"/>
-      <c r="W3" s="139"/>
-      <c r="X3" s="139"/>
-      <c r="Y3" s="139"/>
-      <c r="Z3" s="139"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="147"/>
+      <c r="M3" s="147"/>
+      <c r="N3" s="147"/>
+      <c r="O3" s="147"/>
+      <c r="P3" s="147"/>
+      <c r="Q3" s="147"/>
+      <c r="R3" s="147"/>
+      <c r="S3" s="147"/>
+      <c r="T3" s="147"/>
+      <c r="U3" s="147"/>
+      <c r="V3" s="147"/>
+      <c r="W3" s="147"/>
+      <c r="X3" s="147"/>
+      <c r="Y3" s="147"/>
+      <c r="Z3" s="147"/>
       <c r="AA3" s="36"/>
-      <c r="AC3" s="129" t="s">
+      <c r="AC3" s="163" t="s">
         <v>142</v>
       </c>
-      <c r="AD3" s="129"/>
-      <c r="AE3" s="129" t="s">
+      <c r="AD3" s="163"/>
+      <c r="AE3" s="163" t="s">
         <v>143</v>
       </c>
-      <c r="AF3" s="129"/>
-      <c r="AG3" s="129"/>
-      <c r="AH3" s="129"/>
-      <c r="AI3" s="129"/>
-      <c r="AJ3" s="129" t="s">
+      <c r="AF3" s="163"/>
+      <c r="AG3" s="163"/>
+      <c r="AH3" s="163"/>
+      <c r="AI3" s="163"/>
+      <c r="AJ3" s="163" t="s">
         <v>144</v>
       </c>
-      <c r="AK3" s="129"/>
-      <c r="AL3" s="129"/>
-      <c r="AM3" s="129"/>
-      <c r="AN3" s="129"/>
-      <c r="AO3" s="129" t="s">
+      <c r="AK3" s="163"/>
+      <c r="AL3" s="163"/>
+      <c r="AM3" s="163"/>
+      <c r="AN3" s="163"/>
+      <c r="AO3" s="163" t="s">
         <v>149</v>
       </c>
-      <c r="AP3" s="129"/>
-      <c r="AQ3" s="129"/>
-      <c r="AR3" s="129"/>
-      <c r="AS3" s="129" t="s">
+      <c r="AP3" s="163"/>
+      <c r="AQ3" s="163"/>
+      <c r="AR3" s="163"/>
+      <c r="AS3" s="163" t="s">
         <v>150</v>
       </c>
-      <c r="AT3" s="129"/>
-      <c r="AU3" s="129"/>
-      <c r="AV3" s="129"/>
-      <c r="AW3" s="129" t="s">
+      <c r="AT3" s="163"/>
+      <c r="AU3" s="163"/>
+      <c r="AV3" s="163"/>
+      <c r="AW3" s="163" t="s">
         <v>151</v>
       </c>
-      <c r="AX3" s="129"/>
-      <c r="AY3" s="129"/>
-      <c r="AZ3" s="129"/>
-      <c r="BA3" s="129" t="s">
+      <c r="AX3" s="163"/>
+      <c r="AY3" s="163"/>
+      <c r="AZ3" s="163"/>
+      <c r="BA3" s="163" t="s">
         <v>152</v>
       </c>
-      <c r="BB3" s="129"/>
-      <c r="BC3" s="129"/>
-      <c r="BD3" s="129"/>
+      <c r="BB3" s="163"/>
+      <c r="BC3" s="163"/>
+      <c r="BD3" s="163"/>
+      <c r="BE3" s="204" t="s">
+        <v>181</v>
+      </c>
+      <c r="BF3" s="205"/>
     </row>
-    <row r="4" spans="1:56" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:58" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
@@ -24407,18 +24418,18 @@
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
       <c r="H4" s="37"/>
-      <c r="I4" s="150" t="s">
+      <c r="I4" s="156" t="s">
         <v>90</v>
       </c>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
-      <c r="M4" s="150"/>
-      <c r="N4" s="150"/>
-      <c r="O4" s="151" t="s">
+      <c r="J4" s="156"/>
+      <c r="K4" s="156"/>
+      <c r="L4" s="156"/>
+      <c r="M4" s="156"/>
+      <c r="N4" s="156"/>
+      <c r="O4" s="157" t="s">
         <v>106</v>
       </c>
-      <c r="P4" s="151"/>
+      <c r="P4" s="157"/>
       <c r="Q4" s="72" t="str">
         <f>"."&amp;RIGHT(W22,2)</f>
         <v>.25</v>
@@ -24433,48 +24444,52 @@
       <c r="Y4" s="37"/>
       <c r="Z4" s="37"/>
       <c r="AA4" s="37"/>
-      <c r="AC4" s="129"/>
-      <c r="AD4" s="129"/>
-      <c r="AE4" s="130" t="s">
+      <c r="AC4" s="163"/>
+      <c r="AD4" s="163"/>
+      <c r="AE4" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="AF4" s="130"/>
-      <c r="AG4" s="130"/>
-      <c r="AH4" s="130"/>
-      <c r="AI4" s="130"/>
-      <c r="AJ4" s="130" t="s">
+      <c r="AF4" s="165"/>
+      <c r="AG4" s="165"/>
+      <c r="AH4" s="165"/>
+      <c r="AI4" s="165"/>
+      <c r="AJ4" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="AK4" s="130"/>
-      <c r="AL4" s="130"/>
-      <c r="AM4" s="130"/>
-      <c r="AN4" s="130"/>
-      <c r="AO4" s="130" t="s">
+      <c r="AK4" s="165"/>
+      <c r="AL4" s="165"/>
+      <c r="AM4" s="165"/>
+      <c r="AN4" s="165"/>
+      <c r="AO4" s="165" t="s">
         <v>148</v>
       </c>
-      <c r="AP4" s="130"/>
-      <c r="AQ4" s="130"/>
-      <c r="AR4" s="130"/>
-      <c r="AS4" s="130" t="s">
+      <c r="AP4" s="165"/>
+      <c r="AQ4" s="165"/>
+      <c r="AR4" s="165"/>
+      <c r="AS4" s="165" t="s">
         <v>148</v>
       </c>
-      <c r="AT4" s="130"/>
-      <c r="AU4" s="130"/>
-      <c r="AV4" s="130"/>
-      <c r="AW4" s="130" t="s">
+      <c r="AT4" s="165"/>
+      <c r="AU4" s="165"/>
+      <c r="AV4" s="165"/>
+      <c r="AW4" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="AX4" s="130"/>
-      <c r="AY4" s="130"/>
-      <c r="AZ4" s="130"/>
-      <c r="BA4" s="130" t="s">
+      <c r="AX4" s="165"/>
+      <c r="AY4" s="165"/>
+      <c r="AZ4" s="165"/>
+      <c r="BA4" s="165" t="s">
         <v>172</v>
       </c>
-      <c r="BB4" s="130"/>
-      <c r="BC4" s="130"/>
-      <c r="BD4" s="130"/>
+      <c r="BB4" s="165"/>
+      <c r="BC4" s="165"/>
+      <c r="BD4" s="165"/>
+      <c r="BE4" s="165" t="s">
+        <v>182</v>
+      </c>
+      <c r="BF4" s="165"/>
     </row>
-    <row r="5" spans="1:56" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:58" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="76" t="s">
         <v>38</v>
       </c>
@@ -24485,15 +24500,15 @@
       <c r="F5" s="78"/>
       <c r="G5" s="78"/>
       <c r="H5" s="78"/>
-      <c r="I5" s="153" t="s">
+      <c r="I5" s="159" t="s">
         <v>108</v>
       </c>
-      <c r="J5" s="153"/>
-      <c r="K5" s="153"/>
-      <c r="L5" s="153"/>
-      <c r="M5" s="153"/>
-      <c r="N5" s="153"/>
-      <c r="O5" s="153"/>
+      <c r="J5" s="159"/>
+      <c r="K5" s="159"/>
+      <c r="L5" s="159"/>
+      <c r="M5" s="159"/>
+      <c r="N5" s="159"/>
+      <c r="O5" s="159"/>
       <c r="P5" s="73"/>
       <c r="Q5" s="73"/>
       <c r="R5" s="73"/>
@@ -24505,220 +24520,222 @@
       <c r="X5" s="73"/>
       <c r="Y5" s="68"/>
       <c r="Z5" s="17"/>
-      <c r="AC5" s="131">
+      <c r="AC5" s="166">
         <v>1</v>
       </c>
-      <c r="AD5" s="131"/>
-      <c r="AE5" s="131">
+      <c r="AD5" s="166"/>
+      <c r="AE5" s="166">
         <v>999.995</v>
       </c>
-      <c r="AF5" s="131"/>
-      <c r="AG5" s="131"/>
-      <c r="AH5" s="131"/>
-      <c r="AI5" s="131"/>
-      <c r="AJ5" s="131">
+      <c r="AF5" s="166"/>
+      <c r="AG5" s="166"/>
+      <c r="AH5" s="166"/>
+      <c r="AI5" s="166"/>
+      <c r="AJ5" s="166">
         <v>1000</v>
       </c>
-      <c r="AK5" s="131"/>
-      <c r="AL5" s="131"/>
-      <c r="AM5" s="131"/>
-      <c r="AN5" s="131"/>
-      <c r="AO5" s="131">
+      <c r="AK5" s="166"/>
+      <c r="AL5" s="166"/>
+      <c r="AM5" s="166"/>
+      <c r="AN5" s="166"/>
+      <c r="AO5" s="166">
         <v>20.6</v>
       </c>
-      <c r="AP5" s="131"/>
-      <c r="AQ5" s="131"/>
-      <c r="AR5" s="131"/>
-      <c r="AS5" s="131">
+      <c r="AP5" s="166"/>
+      <c r="AQ5" s="166"/>
+      <c r="AR5" s="166"/>
+      <c r="AS5" s="166">
         <v>20.5</v>
       </c>
-      <c r="AT5" s="131"/>
-      <c r="AU5" s="131"/>
-      <c r="AV5" s="131"/>
-      <c r="AW5" s="131">
+      <c r="AT5" s="166"/>
+      <c r="AU5" s="166"/>
+      <c r="AV5" s="166"/>
+      <c r="AW5" s="166">
         <v>54.2</v>
       </c>
-      <c r="AX5" s="131"/>
-      <c r="AY5" s="131"/>
-      <c r="AZ5" s="131"/>
-      <c r="BA5" s="131">
+      <c r="AX5" s="166"/>
+      <c r="AY5" s="166"/>
+      <c r="AZ5" s="166"/>
+      <c r="BA5" s="166">
         <v>758.6</v>
       </c>
-      <c r="BB5" s="131"/>
-      <c r="BC5" s="131"/>
-      <c r="BD5" s="131"/>
+      <c r="BB5" s="166"/>
+      <c r="BC5" s="166"/>
+      <c r="BD5" s="166"/>
+      <c r="BE5" s="206"/>
+      <c r="BF5" s="207"/>
     </row>
-    <row r="6" spans="1:56" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:58" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="156" t="s">
+      <c r="E6" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="156"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="156"/>
-      <c r="I6" s="156"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
       <c r="J6" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="R6" s="146"/>
-      <c r="S6" s="146"/>
-      <c r="T6" s="146"/>
-      <c r="U6" s="146"/>
-      <c r="V6" s="146"/>
-      <c r="W6" s="146"/>
-      <c r="X6" s="146"/>
-      <c r="Y6" s="146"/>
-      <c r="Z6" s="154"/>
+      <c r="R6" s="132"/>
+      <c r="S6" s="132"/>
+      <c r="T6" s="132"/>
+      <c r="U6" s="132"/>
+      <c r="V6" s="132"/>
+      <c r="W6" s="132"/>
+      <c r="X6" s="132"/>
+      <c r="Y6" s="132"/>
+      <c r="Z6" s="133"/>
     </row>
-    <row r="7" spans="1:56" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:58" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="32" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="20"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="146"/>
-      <c r="N7" s="146"/>
-      <c r="O7" s="146"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="132"/>
+      <c r="M7" s="132"/>
+      <c r="N7" s="132"/>
+      <c r="O7" s="132"/>
       <c r="P7" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Z7" s="19"/>
     </row>
-    <row r="8" spans="1:56" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:58" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="20"/>
-      <c r="J8" s="149" t="s">
+      <c r="J8" s="155" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="149"/>
-      <c r="L8" s="149"/>
-      <c r="M8" s="149"/>
-      <c r="N8" s="149"/>
-      <c r="O8" s="149"/>
-      <c r="P8" s="157" t="str">
+      <c r="K8" s="155"/>
+      <c r="L8" s="155"/>
+      <c r="M8" s="155"/>
+      <c r="N8" s="155"/>
+      <c r="O8" s="155"/>
+      <c r="P8" s="138" t="str">
         <f>"(0 ÷"</f>
         <v>(0 ÷</v>
       </c>
-      <c r="Q8" s="157"/>
-      <c r="R8" s="161"/>
-      <c r="S8" s="161"/>
-      <c r="T8" s="161"/>
+      <c r="Q8" s="138"/>
+      <c r="R8" s="142"/>
+      <c r="S8" s="142"/>
+      <c r="T8" s="142"/>
       <c r="U8" s="1" t="s">
         <v>94</v>
       </c>
       <c r="Z8" s="19"/>
     </row>
-    <row r="9" spans="1:56" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:58" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18"/>
       <c r="B9" s="20"/>
-      <c r="J9" s="141" t="s">
+      <c r="J9" s="148" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="141"/>
-      <c r="L9" s="141"/>
-      <c r="M9" s="141"/>
-      <c r="N9" s="141"/>
-      <c r="O9" s="141"/>
-      <c r="P9" s="141"/>
-      <c r="Q9" s="141"/>
-      <c r="R9" s="158"/>
-      <c r="S9" s="158"/>
+      <c r="K9" s="148"/>
+      <c r="L9" s="148"/>
+      <c r="M9" s="148"/>
+      <c r="N9" s="148"/>
+      <c r="O9" s="148"/>
+      <c r="P9" s="148"/>
+      <c r="Q9" s="148"/>
+      <c r="R9" s="129"/>
+      <c r="S9" s="129"/>
       <c r="T9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Z9" s="19"/>
     </row>
-    <row r="10" spans="1:56" ht="19.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:58" ht="19.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="J10" s="109" t="s">
         <v>141</v>
       </c>
-      <c r="M10" s="158"/>
-      <c r="N10" s="158"/>
+      <c r="M10" s="129"/>
+      <c r="N10" s="129"/>
     </row>
-    <row r="11" spans="1:56" ht="19.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:58" ht="19.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="J11" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="O11" s="158" t="s">
+      <c r="O11" s="129" t="s">
         <v>168</v>
       </c>
-      <c r="P11" s="158"/>
-      <c r="Q11" s="158"/>
-      <c r="R11" s="158"/>
-      <c r="T11" s="128" t="s">
+      <c r="P11" s="129"/>
+      <c r="Q11" s="129"/>
+      <c r="R11" s="129"/>
+      <c r="T11" s="164" t="s">
         <v>165</v>
       </c>
-      <c r="U11" s="128"/>
-      <c r="V11" s="164">
+      <c r="U11" s="164"/>
+      <c r="V11" s="130">
         <v>11.5</v>
       </c>
-      <c r="W11" s="164"/>
+      <c r="W11" s="130"/>
       <c r="X11" s="127" t="s">
         <v>169</v>
       </c>
       <c r="Y11" s="126"/>
       <c r="Z11" s="126"/>
     </row>
-    <row r="12" spans="1:56" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:58" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="32" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="20"/>
-      <c r="H12" s="147"/>
-      <c r="I12" s="147"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="147"/>
-      <c r="L12" s="147"/>
-      <c r="M12" s="147"/>
-      <c r="N12" s="147"/>
-      <c r="O12" s="147"/>
-      <c r="P12" s="147"/>
-      <c r="Q12" s="147"/>
-      <c r="R12" s="147"/>
-      <c r="S12" s="147"/>
-      <c r="T12" s="147"/>
-      <c r="U12" s="147"/>
-      <c r="V12" s="147"/>
-      <c r="W12" s="147"/>
-      <c r="X12" s="147"/>
-      <c r="Y12" s="147"/>
-      <c r="Z12" s="148"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="153"/>
+      <c r="K12" s="153"/>
+      <c r="L12" s="153"/>
+      <c r="M12" s="153"/>
+      <c r="N12" s="153"/>
+      <c r="O12" s="153"/>
+      <c r="P12" s="153"/>
+      <c r="Q12" s="153"/>
+      <c r="R12" s="153"/>
+      <c r="S12" s="153"/>
+      <c r="T12" s="153"/>
+      <c r="U12" s="153"/>
+      <c r="V12" s="153"/>
+      <c r="W12" s="153"/>
+      <c r="X12" s="153"/>
+      <c r="Y12" s="153"/>
+      <c r="Z12" s="154"/>
     </row>
-    <row r="13" spans="1:56" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:58" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="32" t="s">
         <v>46</v>
       </c>
       <c r="B13" s="20"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="147"/>
-      <c r="L13" s="147"/>
-      <c r="M13" s="147"/>
-      <c r="N13" s="147"/>
-      <c r="O13" s="147"/>
-      <c r="P13" s="147"/>
-      <c r="Q13" s="147"/>
-      <c r="R13" s="147"/>
-      <c r="S13" s="147"/>
-      <c r="T13" s="147"/>
-      <c r="U13" s="147"/>
-      <c r="V13" s="147"/>
-      <c r="W13" s="147"/>
-      <c r="X13" s="147"/>
-      <c r="Y13" s="147"/>
-      <c r="Z13" s="148"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="153"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="153"/>
+      <c r="K13" s="153"/>
+      <c r="L13" s="153"/>
+      <c r="M13" s="153"/>
+      <c r="N13" s="153"/>
+      <c r="O13" s="153"/>
+      <c r="P13" s="153"/>
+      <c r="Q13" s="153"/>
+      <c r="R13" s="153"/>
+      <c r="S13" s="153"/>
+      <c r="T13" s="153"/>
+      <c r="U13" s="153"/>
+      <c r="V13" s="153"/>
+      <c r="W13" s="153"/>
+      <c r="X13" s="153"/>
+      <c r="Y13" s="153"/>
+      <c r="Z13" s="154"/>
     </row>
-    <row r="14" spans="1:56" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:58" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="33" t="s">
         <v>47</v>
       </c>
@@ -24732,15 +24749,15 @@
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
       <c r="O14" s="26"/>
-      <c r="Q14" s="162"/>
-      <c r="R14" s="162"/>
-      <c r="S14" s="162"/>
-      <c r="T14" s="162"/>
+      <c r="Q14" s="143"/>
+      <c r="R14" s="143"/>
+      <c r="S14" s="143"/>
+      <c r="T14" s="143"/>
       <c r="Y14" s="26"/>
       <c r="Z14" s="27"/>
       <c r="AA14" s="26"/>
     </row>
-    <row r="15" spans="1:56" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:58" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="33" t="s">
         <v>48</v>
       </c>
@@ -24753,7 +24770,7 @@
       <c r="Z15" s="27"/>
       <c r="AA15" s="26"/>
     </row>
-    <row r="16" spans="1:56" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:58" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="32" t="s">
         <v>49</v>
       </c>
@@ -24767,17 +24784,17 @@
     <row r="17" spans="1:27" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18"/>
       <c r="B17" s="20"/>
-      <c r="J17" s="141" t="s">
+      <c r="J17" s="148" t="s">
         <v>139</v>
       </c>
-      <c r="K17" s="141"/>
-      <c r="L17" s="141"/>
-      <c r="M17" s="141"/>
-      <c r="N17" s="141"/>
-      <c r="O17" s="141"/>
-      <c r="P17" s="141"/>
-      <c r="Q17" s="141"/>
-      <c r="R17" s="141"/>
+      <c r="K17" s="148"/>
+      <c r="L17" s="148"/>
+      <c r="M17" s="148"/>
+      <c r="N17" s="148"/>
+      <c r="O17" s="148"/>
+      <c r="P17" s="148"/>
+      <c r="Q17" s="148"/>
+      <c r="R17" s="148"/>
       <c r="Z17" s="19"/>
     </row>
     <row r="18" spans="1:27" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24785,33 +24802,33 @@
         <v>50</v>
       </c>
       <c r="B18" s="20"/>
-      <c r="P18" s="163" t="s">
+      <c r="P18" s="144" t="s">
         <v>133</v>
       </c>
-      <c r="Q18" s="163"/>
-      <c r="R18" s="163"/>
-      <c r="S18" s="163"/>
-      <c r="T18" s="163"/>
-      <c r="U18" s="163"/>
-      <c r="V18" s="163"/>
-      <c r="W18" s="163"/>
-      <c r="X18" s="163"/>
-      <c r="Y18" s="163"/>
+      <c r="Q18" s="144"/>
+      <c r="R18" s="144"/>
+      <c r="S18" s="144"/>
+      <c r="T18" s="144"/>
+      <c r="U18" s="144"/>
+      <c r="V18" s="144"/>
+      <c r="W18" s="144"/>
+      <c r="X18" s="144"/>
+      <c r="Y18" s="144"/>
       <c r="Z18" s="19"/>
     </row>
     <row r="19" spans="1:27" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="32"/>
       <c r="B19" s="20"/>
-      <c r="P19" s="163"/>
-      <c r="Q19" s="163"/>
-      <c r="R19" s="163"/>
-      <c r="S19" s="163"/>
-      <c r="T19" s="163"/>
-      <c r="U19" s="163"/>
-      <c r="V19" s="163"/>
-      <c r="W19" s="163"/>
-      <c r="X19" s="163"/>
-      <c r="Y19" s="163"/>
+      <c r="P19" s="144"/>
+      <c r="Q19" s="144"/>
+      <c r="R19" s="144"/>
+      <c r="S19" s="144"/>
+      <c r="T19" s="144"/>
+      <c r="U19" s="144"/>
+      <c r="V19" s="144"/>
+      <c r="W19" s="144"/>
+      <c r="X19" s="144"/>
+      <c r="Y19" s="144"/>
       <c r="Z19" s="19"/>
     </row>
     <row r="20" spans="1:27" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24823,31 +24840,31 @@
     </row>
     <row r="21" spans="1:27" ht="19.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="30"/>
-      <c r="D21" s="132" t="s">
+      <c r="D21" s="139" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="132"/>
-      <c r="K21" s="132"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="139"/>
       <c r="L21" s="85" t="s">
         <v>83</v>
       </c>
       <c r="M21" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="Q21" s="132" t="s">
+      <c r="Q21" s="139" t="s">
         <v>104</v>
       </c>
-      <c r="R21" s="132"/>
-      <c r="S21" s="132"/>
-      <c r="T21" s="132"/>
-      <c r="U21" s="132"/>
-      <c r="V21" s="132"/>
-      <c r="W21" s="132"/>
+      <c r="R21" s="139"/>
+      <c r="S21" s="139"/>
+      <c r="T21" s="139"/>
+      <c r="U21" s="139"/>
+      <c r="V21" s="139"/>
+      <c r="W21" s="139"/>
       <c r="X21" s="85" t="s">
         <v>105</v>
       </c>
@@ -24861,28 +24878,28 @@
         <v>52</v>
       </c>
       <c r="B22" s="20"/>
-      <c r="J22" s="159" t="s">
+      <c r="J22" s="140" t="s">
         <v>87</v>
       </c>
-      <c r="K22" s="159"/>
-      <c r="L22" s="159"/>
-      <c r="M22" s="159"/>
-      <c r="N22" s="159"/>
-      <c r="P22" s="142" t="s">
+      <c r="K22" s="140"/>
+      <c r="L22" s="140"/>
+      <c r="M22" s="140"/>
+      <c r="N22" s="140"/>
+      <c r="P22" s="149" t="s">
         <v>53</v>
       </c>
-      <c r="Q22" s="142"/>
-      <c r="R22" s="142"/>
-      <c r="S22" s="142"/>
-      <c r="T22" s="142"/>
-      <c r="U22" s="142"/>
-      <c r="V22" s="142"/>
-      <c r="W22" s="143" t="s">
+      <c r="Q22" s="149"/>
+      <c r="R22" s="149"/>
+      <c r="S22" s="149"/>
+      <c r="T22" s="149"/>
+      <c r="U22" s="149"/>
+      <c r="V22" s="149"/>
+      <c r="W22" s="150" t="s">
         <v>138</v>
       </c>
-      <c r="X22" s="144"/>
-      <c r="Y22" s="144"/>
-      <c r="Z22" s="145"/>
+      <c r="X22" s="151"/>
+      <c r="Y22" s="151"/>
+      <c r="Z22" s="152"/>
       <c r="AA22" s="31"/>
     </row>
     <row r="23" spans="1:27" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -24896,11 +24913,11 @@
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
-      <c r="I23" s="160" t="s">
+      <c r="I23" s="141" t="s">
         <v>136</v>
       </c>
-      <c r="J23" s="160"/>
-      <c r="K23" s="160"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="141"/>
       <c r="L23" s="22"/>
       <c r="M23" s="22"/>
       <c r="N23" s="22"/>
@@ -24912,32 +24929,32 @@
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
       <c r="T23" s="22"/>
-      <c r="U23" s="152" t="s">
+      <c r="U23" s="158" t="s">
         <v>99</v>
       </c>
-      <c r="V23" s="152"/>
-      <c r="W23" s="152"/>
-      <c r="X23" s="152"/>
+      <c r="V23" s="158"/>
+      <c r="W23" s="158"/>
+      <c r="X23" s="158"/>
       <c r="Y23" s="22"/>
       <c r="Z23" s="63"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B24" s="155" t="s">
+      <c r="B24" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="155"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="155"/>
-      <c r="G24" s="155"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="134"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B25" s="155"/>
-      <c r="C25" s="155"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="155"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="134"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B26" s="3" t="s">
@@ -24952,61 +24969,61 @@
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B27" s="140" t="s">
+      <c r="B27" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="140"/>
-      <c r="D27" s="140"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="136"/>
-      <c r="H27" s="136"/>
-      <c r="I27" s="136"/>
-      <c r="J27" s="136"/>
-      <c r="K27" s="136"/>
-      <c r="L27" s="136"/>
-      <c r="M27" s="136"/>
-      <c r="N27" s="136"/>
-      <c r="O27" s="136"/>
-      <c r="P27" s="136"/>
-      <c r="Q27" s="136"/>
-      <c r="R27" s="136"/>
-      <c r="S27" s="136"/>
-      <c r="T27" s="136"/>
-      <c r="U27" s="136"/>
-      <c r="V27" s="136"/>
-      <c r="W27" s="136"/>
-      <c r="X27" s="136"/>
-      <c r="Y27" s="136"/>
-      <c r="Z27" s="136"/>
+      <c r="C27" s="136"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="136"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="135"/>
+      <c r="J27" s="135"/>
+      <c r="K27" s="135"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="135"/>
+      <c r="N27" s="135"/>
+      <c r="O27" s="135"/>
+      <c r="P27" s="135"/>
+      <c r="Q27" s="135"/>
+      <c r="R27" s="135"/>
+      <c r="S27" s="135"/>
+      <c r="T27" s="135"/>
+      <c r="U27" s="135"/>
+      <c r="V27" s="135"/>
+      <c r="W27" s="135"/>
+      <c r="X27" s="135"/>
+      <c r="Y27" s="135"/>
+      <c r="Z27" s="135"/>
       <c r="AA27" s="6"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B28" s="140"/>
-      <c r="C28" s="140"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="136"/>
-      <c r="J28" s="136"/>
-      <c r="K28" s="136"/>
-      <c r="L28" s="136"/>
-      <c r="M28" s="136"/>
-      <c r="N28" s="136"/>
-      <c r="O28" s="136"/>
-      <c r="P28" s="136"/>
-      <c r="Q28" s="136"/>
-      <c r="R28" s="136"/>
-      <c r="S28" s="136"/>
-      <c r="T28" s="136"/>
-      <c r="U28" s="136"/>
-      <c r="V28" s="136"/>
-      <c r="W28" s="136"/>
-      <c r="X28" s="136"/>
-      <c r="Y28" s="136"/>
-      <c r="Z28" s="136"/>
+      <c r="B28" s="136"/>
+      <c r="C28" s="136"/>
+      <c r="D28" s="136"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="135"/>
+      <c r="I28" s="135"/>
+      <c r="J28" s="135"/>
+      <c r="K28" s="135"/>
+      <c r="L28" s="135"/>
+      <c r="M28" s="135"/>
+      <c r="N28" s="135"/>
+      <c r="O28" s="135"/>
+      <c r="P28" s="135"/>
+      <c r="Q28" s="135"/>
+      <c r="R28" s="135"/>
+      <c r="S28" s="135"/>
+      <c r="T28" s="135"/>
+      <c r="U28" s="135"/>
+      <c r="V28" s="135"/>
+      <c r="W28" s="135"/>
+      <c r="X28" s="135"/>
+      <c r="Y28" s="135"/>
+      <c r="Z28" s="135"/>
       <c r="AA28" s="6"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.35">
@@ -25027,61 +25044,61 @@
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B30" s="140" t="s">
+      <c r="B30" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="140"/>
-      <c r="D30" s="140"/>
-      <c r="E30" s="140"/>
-      <c r="F30" s="136"/>
-      <c r="G30" s="136"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="136"/>
-      <c r="J30" s="136"/>
-      <c r="K30" s="136"/>
-      <c r="L30" s="136"/>
-      <c r="M30" s="136"/>
-      <c r="N30" s="136"/>
-      <c r="O30" s="136"/>
-      <c r="P30" s="136"/>
-      <c r="Q30" s="136"/>
-      <c r="R30" s="136"/>
-      <c r="S30" s="136"/>
-      <c r="T30" s="136"/>
-      <c r="U30" s="136"/>
-      <c r="V30" s="136"/>
-      <c r="W30" s="136"/>
-      <c r="X30" s="136"/>
-      <c r="Y30" s="136"/>
-      <c r="Z30" s="136"/>
+      <c r="C30" s="136"/>
+      <c r="D30" s="136"/>
+      <c r="E30" s="136"/>
+      <c r="F30" s="135"/>
+      <c r="G30" s="135"/>
+      <c r="H30" s="135"/>
+      <c r="I30" s="135"/>
+      <c r="J30" s="135"/>
+      <c r="K30" s="135"/>
+      <c r="L30" s="135"/>
+      <c r="M30" s="135"/>
+      <c r="N30" s="135"/>
+      <c r="O30" s="135"/>
+      <c r="P30" s="135"/>
+      <c r="Q30" s="135"/>
+      <c r="R30" s="135"/>
+      <c r="S30" s="135"/>
+      <c r="T30" s="135"/>
+      <c r="U30" s="135"/>
+      <c r="V30" s="135"/>
+      <c r="W30" s="135"/>
+      <c r="X30" s="135"/>
+      <c r="Y30" s="135"/>
+      <c r="Z30" s="135"/>
       <c r="AA30" s="6"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B31" s="140"/>
-      <c r="C31" s="140"/>
-      <c r="D31" s="140"/>
-      <c r="E31" s="140"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="136"/>
-      <c r="I31" s="136"/>
-      <c r="J31" s="136"/>
-      <c r="K31" s="136"/>
-      <c r="L31" s="136"/>
-      <c r="M31" s="136"/>
-      <c r="N31" s="136"/>
-      <c r="O31" s="136"/>
-      <c r="P31" s="136"/>
-      <c r="Q31" s="136"/>
-      <c r="R31" s="136"/>
-      <c r="S31" s="136"/>
-      <c r="T31" s="136"/>
-      <c r="U31" s="136"/>
-      <c r="V31" s="136"/>
-      <c r="W31" s="136"/>
-      <c r="X31" s="136"/>
-      <c r="Y31" s="136"/>
-      <c r="Z31" s="136"/>
+      <c r="B31" s="136"/>
+      <c r="C31" s="136"/>
+      <c r="D31" s="136"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="135"/>
+      <c r="H31" s="135"/>
+      <c r="I31" s="135"/>
+      <c r="J31" s="135"/>
+      <c r="K31" s="135"/>
+      <c r="L31" s="135"/>
+      <c r="M31" s="135"/>
+      <c r="N31" s="135"/>
+      <c r="O31" s="135"/>
+      <c r="P31" s="135"/>
+      <c r="Q31" s="135"/>
+      <c r="R31" s="135"/>
+      <c r="S31" s="135"/>
+      <c r="T31" s="135"/>
+      <c r="U31" s="135"/>
+      <c r="V31" s="135"/>
+      <c r="W31" s="135"/>
+      <c r="X31" s="135"/>
+      <c r="Y31" s="135"/>
+      <c r="Z31" s="135"/>
       <c r="AA31" s="6"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.35">
@@ -25106,21 +25123,21 @@
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
-      <c r="F34" s="165" t="s">
+      <c r="F34" s="131" t="s">
         <v>112</v>
       </c>
-      <c r="G34" s="165"/>
-      <c r="H34" s="165"/>
-      <c r="I34" s="165"/>
-      <c r="J34" s="165"/>
-      <c r="K34" s="165"/>
-      <c r="L34" s="165"/>
-      <c r="M34" s="165"/>
-      <c r="N34" s="165"/>
-      <c r="O34" s="165"/>
-      <c r="P34" s="165"/>
-      <c r="Q34" s="165"/>
-      <c r="R34" s="165"/>
+      <c r="G34" s="131"/>
+      <c r="H34" s="131"/>
+      <c r="I34" s="131"/>
+      <c r="J34" s="131"/>
+      <c r="K34" s="131"/>
+      <c r="L34" s="131"/>
+      <c r="M34" s="131"/>
+      <c r="N34" s="131"/>
+      <c r="O34" s="131"/>
+      <c r="P34" s="131"/>
+      <c r="Q34" s="131"/>
+      <c r="R34" s="131"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B35" s="3"/>
@@ -25146,21 +25163,21 @@
       <c r="D36"/>
       <c r="E36"/>
       <c r="F36"/>
-      <c r="G36" s="166" t="s">
+      <c r="G36" s="128" t="s">
         <v>110</v>
       </c>
-      <c r="H36" s="166"/>
-      <c r="I36" s="166"/>
-      <c r="J36" s="166"/>
-      <c r="K36" s="166" t="s">
+      <c r="H36" s="128"/>
+      <c r="I36" s="128"/>
+      <c r="J36" s="128"/>
+      <c r="K36" s="128" t="s">
         <v>111</v>
       </c>
-      <c r="L36" s="166"/>
-      <c r="M36" s="166"/>
-      <c r="N36" s="166"/>
-      <c r="O36" s="166"/>
-      <c r="P36" s="166"/>
-      <c r="Q36" s="166"/>
+      <c r="L36" s="128"/>
+      <c r="M36" s="128"/>
+      <c r="N36" s="128"/>
+      <c r="O36" s="128"/>
+      <c r="P36" s="128"/>
+      <c r="Q36" s="128"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B37" s="3"/>
@@ -25168,21 +25185,21 @@
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37"/>
-      <c r="G37" s="166" t="s">
+      <c r="G37" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="H37" s="166"/>
-      <c r="I37" s="166"/>
-      <c r="J37" s="166"/>
-      <c r="K37" s="166" t="s">
+      <c r="H37" s="128"/>
+      <c r="I37" s="128"/>
+      <c r="J37" s="128"/>
+      <c r="K37" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="L37" s="166"/>
-      <c r="M37" s="166"/>
-      <c r="N37" s="166"/>
-      <c r="O37" s="166"/>
-      <c r="P37" s="166"/>
-      <c r="Q37" s="166"/>
+      <c r="L37" s="128"/>
+      <c r="M37" s="128"/>
+      <c r="N37" s="128"/>
+      <c r="O37" s="128"/>
+      <c r="P37" s="128"/>
+      <c r="Q37" s="128"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B38" s="3"/>
@@ -25190,17 +25207,17 @@
       <c r="D38"/>
       <c r="E38"/>
       <c r="F38"/>
-      <c r="G38" s="166"/>
-      <c r="H38" s="166"/>
-      <c r="I38" s="166"/>
-      <c r="J38" s="166"/>
-      <c r="K38" s="166"/>
-      <c r="L38" s="166"/>
-      <c r="M38" s="166"/>
-      <c r="N38" s="166"/>
-      <c r="O38" s="166"/>
-      <c r="P38" s="166"/>
-      <c r="Q38" s="166"/>
+      <c r="G38" s="128"/>
+      <c r="H38" s="128"/>
+      <c r="I38" s="128"/>
+      <c r="J38" s="128"/>
+      <c r="K38" s="128"/>
+      <c r="L38" s="128"/>
+      <c r="M38" s="128"/>
+      <c r="N38" s="128"/>
+      <c r="O38" s="128"/>
+      <c r="P38" s="128"/>
+      <c r="Q38" s="128"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B39" s="3"/>
@@ -25208,17 +25225,17 @@
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39"/>
-      <c r="G39" s="166"/>
-      <c r="H39" s="166"/>
-      <c r="I39" s="166"/>
-      <c r="J39" s="166"/>
-      <c r="K39" s="166"/>
-      <c r="L39" s="166"/>
-      <c r="M39" s="166"/>
-      <c r="N39" s="166"/>
-      <c r="O39" s="166"/>
-      <c r="P39" s="166"/>
-      <c r="Q39" s="166"/>
+      <c r="G39" s="128"/>
+      <c r="H39" s="128"/>
+      <c r="I39" s="128"/>
+      <c r="J39" s="128"/>
+      <c r="K39" s="128"/>
+      <c r="L39" s="128"/>
+      <c r="M39" s="128"/>
+      <c r="N39" s="128"/>
+      <c r="O39" s="128"/>
+      <c r="P39" s="128"/>
+      <c r="Q39" s="128"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B40" s="3"/>
@@ -25226,17 +25243,17 @@
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40"/>
-      <c r="G40" s="166"/>
-      <c r="H40" s="166"/>
-      <c r="I40" s="166"/>
-      <c r="J40" s="166"/>
-      <c r="K40" s="166"/>
-      <c r="L40" s="166"/>
-      <c r="M40" s="166"/>
-      <c r="N40" s="166"/>
-      <c r="O40" s="166"/>
-      <c r="P40" s="166"/>
-      <c r="Q40" s="166"/>
+      <c r="G40" s="128"/>
+      <c r="H40" s="128"/>
+      <c r="I40" s="128"/>
+      <c r="J40" s="128"/>
+      <c r="K40" s="128"/>
+      <c r="L40" s="128"/>
+      <c r="M40" s="128"/>
+      <c r="N40" s="128"/>
+      <c r="O40" s="128"/>
+      <c r="P40" s="128"/>
+      <c r="Q40" s="128"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="B41" s="3"/>
@@ -25281,18 +25298,18 @@
     </row>
     <row r="45" spans="1:25" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45"/>
-      <c r="B45" s="137" t="s">
+      <c r="B45" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="137"/>
-      <c r="D45" s="137"/>
-      <c r="E45" s="137"/>
-      <c r="F45" s="137"/>
-      <c r="G45" s="137"/>
-      <c r="H45" s="137"/>
-      <c r="I45" s="137"/>
-      <c r="J45" s="137"/>
-      <c r="K45" s="137"/>
+      <c r="C45" s="145"/>
+      <c r="D45" s="145"/>
+      <c r="E45" s="145"/>
+      <c r="F45" s="145"/>
+      <c r="G45" s="145"/>
+      <c r="H45" s="145"/>
+      <c r="I45" s="145"/>
+      <c r="J45" s="145"/>
+      <c r="K45" s="145"/>
       <c r="P45" s="89"/>
       <c r="Q45" s="89"/>
       <c r="R45" s="89"/>
@@ -25309,7 +25326,7 @@
       <c r="G46"/>
       <c r="L46" s="80" t="str">
         <f>ĐKĐBĐ!AJ12</f>
-        <v>U = (0,03+0,01L) mm; [L]:m</v>
+        <v>U = (0.03+0.01L) mm; [L]:m</v>
       </c>
       <c r="M46" s="47"/>
       <c r="N46" s="47"/>
@@ -25321,45 +25338,45 @@
     <row r="47" spans="1:25" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47"/>
       <c r="B47"/>
-      <c r="C47" s="135" t="s">
+      <c r="C47" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="135"/>
-      <c r="E47" s="135"/>
-      <c r="F47" s="135"/>
-      <c r="G47" s="135"/>
+      <c r="D47" s="162"/>
+      <c r="E47" s="162"/>
+      <c r="F47" s="162"/>
+      <c r="G47" s="162"/>
       <c r="H47"/>
-      <c r="R47" s="135" t="s">
+      <c r="R47" s="162" t="s">
         <v>24</v>
       </c>
-      <c r="S47" s="135"/>
-      <c r="T47" s="135"/>
-      <c r="U47" s="135"/>
-      <c r="V47" s="135"/>
-      <c r="W47" s="135"/>
-      <c r="X47" s="135"/>
+      <c r="S47" s="162"/>
+      <c r="T47" s="162"/>
+      <c r="U47" s="162"/>
+      <c r="V47" s="162"/>
+      <c r="W47" s="162"/>
+      <c r="X47" s="162"/>
     </row>
     <row r="48" spans="1:25" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48"/>
       <c r="B48"/>
-      <c r="C48" s="133" t="s">
+      <c r="C48" s="160" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="134"/>
-      <c r="E48" s="134"/>
-      <c r="F48" s="134"/>
-      <c r="G48" s="134"/>
+      <c r="D48" s="161"/>
+      <c r="E48" s="161"/>
+      <c r="F48" s="161"/>
+      <c r="G48" s="161"/>
       <c r="H48"/>
       <c r="I48"/>
-      <c r="R48" s="133" t="s">
+      <c r="R48" s="160" t="s">
         <v>58</v>
       </c>
-      <c r="S48" s="136"/>
-      <c r="T48" s="136"/>
-      <c r="U48" s="136"/>
-      <c r="V48" s="136"/>
-      <c r="W48" s="136"/>
-      <c r="X48" s="136"/>
+      <c r="S48" s="135"/>
+      <c r="T48" s="135"/>
+      <c r="U48" s="135"/>
+      <c r="V48" s="135"/>
+      <c r="W48" s="135"/>
+      <c r="X48" s="135"/>
     </row>
     <row r="49" spans="1:24" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49"/>
@@ -25385,16 +25402,16 @@
     </row>
     <row r="51" spans="1:24" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J51" s="2"/>
-      <c r="R51" s="132" t="str">
+      <c r="R51" s="139" t="str">
         <f>J22</f>
         <v>Trần Nam Anh</v>
       </c>
-      <c r="S51" s="132"/>
-      <c r="T51" s="132"/>
-      <c r="U51" s="132"/>
-      <c r="V51" s="132"/>
-      <c r="W51" s="132"/>
-      <c r="X51" s="132"/>
+      <c r="S51" s="139"/>
+      <c r="T51" s="139"/>
+      <c r="U51" s="139"/>
+      <c r="V51" s="139"/>
+      <c r="W51" s="139"/>
+      <c r="X51" s="139"/>
     </row>
     <row r="52" spans="1:24" ht="19.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="53" spans="1:24" ht="19.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -25417,20 +25434,51 @@
       <c r="S79" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
-    <mergeCell ref="K40:Q40"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="K38:Q38"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="F34:R34"/>
-    <mergeCell ref="K36:Q36"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="G36:J36"/>
+  <mergeCells count="74">
+    <mergeCell ref="BE3:BF3"/>
+    <mergeCell ref="BE4:BF4"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AJ5:AN5"/>
+    <mergeCell ref="AE5:AI5"/>
+    <mergeCell ref="BA5:BD5"/>
+    <mergeCell ref="AW5:AZ5"/>
+    <mergeCell ref="AS5:AV5"/>
+    <mergeCell ref="AO5:AR5"/>
+    <mergeCell ref="BA3:BD3"/>
+    <mergeCell ref="AE4:AI4"/>
+    <mergeCell ref="AC3:AD4"/>
+    <mergeCell ref="AJ4:AN4"/>
+    <mergeCell ref="AO4:AR4"/>
+    <mergeCell ref="AS4:AV4"/>
+    <mergeCell ref="AW4:AZ4"/>
+    <mergeCell ref="BA4:BD4"/>
+    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="AJ3:AN3"/>
+    <mergeCell ref="AO3:AR3"/>
+    <mergeCell ref="AS3:AV3"/>
+    <mergeCell ref="AW3:AZ3"/>
+    <mergeCell ref="R51:X51"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="R47:X47"/>
+    <mergeCell ref="R48:X48"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="B45:K45"/>
+    <mergeCell ref="A2:Z2"/>
+    <mergeCell ref="A3:Z3"/>
+    <mergeCell ref="B27:E28"/>
+    <mergeCell ref="J17:R17"/>
+    <mergeCell ref="P22:V22"/>
+    <mergeCell ref="W22:Z22"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="H12:Z12"/>
+    <mergeCell ref="F13:Z13"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="J9:Q9"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="I5:O5"/>
     <mergeCell ref="R6:Z6"/>
     <mergeCell ref="B24:G25"/>
     <mergeCell ref="F30:Z31"/>
@@ -25447,48 +25495,20 @@
     <mergeCell ref="Q21:W21"/>
     <mergeCell ref="M10:N10"/>
     <mergeCell ref="P18:Y19"/>
-    <mergeCell ref="B45:K45"/>
-    <mergeCell ref="A2:Z2"/>
-    <mergeCell ref="A3:Z3"/>
-    <mergeCell ref="B27:E28"/>
-    <mergeCell ref="J17:R17"/>
-    <mergeCell ref="P22:V22"/>
-    <mergeCell ref="W22:Z22"/>
-    <mergeCell ref="I7:O7"/>
-    <mergeCell ref="H12:Z12"/>
-    <mergeCell ref="F13:Z13"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="J9:Q9"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="R51:X51"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="R47:X47"/>
-    <mergeCell ref="R48:X48"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="AE3:AI3"/>
-    <mergeCell ref="AJ3:AN3"/>
-    <mergeCell ref="AO3:AR3"/>
-    <mergeCell ref="AS3:AV3"/>
-    <mergeCell ref="AW3:AZ3"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="F34:R34"/>
+    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G36:J36"/>
     <mergeCell ref="T11:U11"/>
-    <mergeCell ref="BA3:BD3"/>
-    <mergeCell ref="AE4:AI4"/>
-    <mergeCell ref="AC3:AD4"/>
-    <mergeCell ref="AJ4:AN4"/>
-    <mergeCell ref="AO4:AR4"/>
-    <mergeCell ref="AS4:AV4"/>
-    <mergeCell ref="AW4:AZ4"/>
-    <mergeCell ref="BA4:BD4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AJ5:AN5"/>
-    <mergeCell ref="AE5:AI5"/>
-    <mergeCell ref="BA5:BD5"/>
-    <mergeCell ref="AW5:AZ5"/>
-    <mergeCell ref="AS5:AV5"/>
-    <mergeCell ref="AO5:AR5"/>
+    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="G38:J38"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J22:N22" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -25766,24 +25786,24 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="137" t="s">
+      <c r="K5" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="180" t="str">
+      <c r="L5" s="145"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="170" t="str">
         <f>"V01.CN5."&amp;'Biên bản'!O4&amp;'Biên bản'!Q4</f>
         <v>V01.CN5.1400.25</v>
       </c>
-      <c r="O5" s="180"/>
-      <c r="P5" s="180"/>
-      <c r="Q5" s="180"/>
-      <c r="R5" s="180"/>
-      <c r="S5" s="180"/>
-      <c r="T5" s="180"/>
-      <c r="U5" s="180"/>
-      <c r="V5" s="180"/>
-      <c r="W5" s="180"/>
+      <c r="O5" s="170"/>
+      <c r="P5" s="170"/>
+      <c r="Q5" s="170"/>
+      <c r="R5" s="170"/>
+      <c r="S5" s="170"/>
+      <c r="T5" s="170"/>
+      <c r="U5" s="170"/>
+      <c r="V5" s="170"/>
+      <c r="W5" s="170"/>
     </row>
     <row r="6" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
@@ -25825,16 +25845,16 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="179" t="str">
+      <c r="J7" s="169" t="str">
         <f>'Biên bản'!I5</f>
         <v>Thước cuộn</v>
       </c>
-      <c r="K7" s="179"/>
-      <c r="L7" s="179"/>
-      <c r="M7" s="179"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="179"/>
-      <c r="P7" s="179"/>
+      <c r="K7" s="169"/>
+      <c r="L7" s="169"/>
+      <c r="M7" s="169"/>
+      <c r="N7" s="169"/>
+      <c r="O7" s="169"/>
+      <c r="P7" s="169"/>
       <c r="Q7" s="100" t="str">
         <f>CONCATENATE('Biên bản'!P5)</f>
         <v/>
@@ -26084,36 +26104,36 @@
       <c r="AC15" s="1"/>
     </row>
     <row r="16" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="140" t="s">
+      <c r="B16" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="140"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="140"/>
-      <c r="K16" s="140"/>
-      <c r="L16" s="140"/>
-      <c r="M16" s="140"/>
-      <c r="N16" s="140"/>
-      <c r="O16" s="140"/>
-      <c r="P16" s="140" t="str">
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="136"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="136"/>
+      <c r="M16" s="136"/>
+      <c r="N16" s="136"/>
+      <c r="O16" s="136"/>
+      <c r="P16" s="136" t="str">
         <f>'Biên bản'!J17</f>
         <v xml:space="preserve">VMI - CP    : 2025 </v>
       </c>
-      <c r="Q16" s="140"/>
-      <c r="R16" s="140"/>
-      <c r="S16" s="140"/>
-      <c r="T16" s="140"/>
-      <c r="U16" s="140"/>
-      <c r="V16" s="140"/>
-      <c r="W16" s="140"/>
-      <c r="X16" s="140"/>
-      <c r="Y16" s="140"/>
-      <c r="Z16" s="140"/>
+      <c r="Q16" s="136"/>
+      <c r="R16" s="136"/>
+      <c r="S16" s="136"/>
+      <c r="T16" s="136"/>
+      <c r="U16" s="136"/>
+      <c r="V16" s="136"/>
+      <c r="W16" s="136"/>
+      <c r="X16" s="136"/>
+      <c r="Y16" s="136"/>
+      <c r="Z16" s="136"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
@@ -26124,30 +26144,30 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="181" t="s">
+      <c r="H17" s="171" t="s">
         <v>153</v>
       </c>
-      <c r="I17" s="181"/>
-      <c r="J17" s="181"/>
-      <c r="K17" s="181"/>
-      <c r="L17" s="181"/>
-      <c r="M17" s="181"/>
-      <c r="N17" s="181"/>
-      <c r="O17" s="181"/>
-      <c r="P17" s="181"/>
-      <c r="Q17" s="181"/>
-      <c r="R17" s="181"/>
-      <c r="S17" s="181"/>
-      <c r="T17" s="181"/>
-      <c r="U17" s="181"/>
-      <c r="V17" s="181"/>
-      <c r="W17" s="181"/>
-      <c r="X17" s="181"/>
-      <c r="Y17" s="181"/>
-      <c r="Z17" s="181"/>
-      <c r="AA17" s="181"/>
-      <c r="AB17" s="181"/>
-      <c r="AC17" s="181"/>
+      <c r="I17" s="171"/>
+      <c r="J17" s="171"/>
+      <c r="K17" s="171"/>
+      <c r="L17" s="171"/>
+      <c r="M17" s="171"/>
+      <c r="N17" s="171"/>
+      <c r="O17" s="171"/>
+      <c r="P17" s="171"/>
+      <c r="Q17" s="171"/>
+      <c r="R17" s="171"/>
+      <c r="S17" s="171"/>
+      <c r="T17" s="171"/>
+      <c r="U17" s="171"/>
+      <c r="V17" s="171"/>
+      <c r="W17" s="171"/>
+      <c r="X17" s="171"/>
+      <c r="Y17" s="171"/>
+      <c r="Z17" s="171"/>
+      <c r="AA17" s="171"/>
+      <c r="AB17" s="171"/>
+      <c r="AC17" s="171"/>
     </row>
     <row r="18" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
@@ -26303,22 +26323,22 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="132" t="s">
+      <c r="H23" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="132"/>
-      <c r="J23" s="132"/>
-      <c r="K23" s="132"/>
-      <c r="L23" s="132"/>
-      <c r="M23" s="132"/>
-      <c r="N23" s="132"/>
-      <c r="O23" s="132"/>
-      <c r="P23" s="132"/>
-      <c r="Q23" s="132"/>
-      <c r="R23" s="132"/>
-      <c r="S23" s="132"/>
-      <c r="T23" s="132"/>
-      <c r="U23" s="132"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="139"/>
+      <c r="K23" s="139"/>
+      <c r="L23" s="139"/>
+      <c r="M23" s="139"/>
+      <c r="N23" s="139"/>
+      <c r="O23" s="139"/>
+      <c r="P23" s="139"/>
+      <c r="Q23" s="139"/>
+      <c r="R23" s="139"/>
+      <c r="S23" s="139"/>
+      <c r="T23" s="139"/>
+      <c r="U23" s="139"/>
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
@@ -26336,22 +26356,22 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="178" t="s">
+      <c r="H24" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="178"/>
-      <c r="J24" s="178"/>
-      <c r="K24" s="178"/>
-      <c r="L24" s="178"/>
-      <c r="M24" s="178"/>
-      <c r="N24" s="178"/>
-      <c r="O24" s="178"/>
-      <c r="P24" s="178"/>
-      <c r="Q24" s="178"/>
-      <c r="R24" s="178"/>
-      <c r="S24" s="178"/>
-      <c r="T24" s="178"/>
-      <c r="U24" s="178"/>
+      <c r="I24" s="168"/>
+      <c r="J24" s="168"/>
+      <c r="K24" s="168"/>
+      <c r="L24" s="168"/>
+      <c r="M24" s="168"/>
+      <c r="N24" s="168"/>
+      <c r="O24" s="168"/>
+      <c r="P24" s="168"/>
+      <c r="Q24" s="168"/>
+      <c r="R24" s="168"/>
+      <c r="S24" s="168"/>
+      <c r="T24" s="168"/>
+      <c r="U24" s="168"/>
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
@@ -26642,16 +26662,16 @@
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="137" t="s">
+      <c r="D34" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="137"/>
-      <c r="F34" s="137"/>
-      <c r="G34" s="137"/>
-      <c r="H34" s="137"/>
-      <c r="I34" s="137"/>
-      <c r="J34" s="137"/>
-      <c r="K34" s="137"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+      <c r="G34" s="145"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="145"/>
+      <c r="K34" s="145"/>
       <c r="M34" s="15"/>
       <c r="N34" s="15"/>
       <c r="O34" s="15"/>
@@ -26802,27 +26822,27 @@
       <c r="F39" s="87"/>
       <c r="G39" s="87"/>
       <c r="H39" s="87"/>
-      <c r="I39" s="173" t="s">
+      <c r="I39" s="178" t="s">
         <v>155</v>
       </c>
-      <c r="J39" s="174"/>
-      <c r="K39" s="174"/>
-      <c r="L39" s="170" t="s">
+      <c r="J39" s="179"/>
+      <c r="K39" s="179"/>
+      <c r="L39" s="175" t="s">
         <v>115</v>
       </c>
-      <c r="M39" s="170"/>
-      <c r="N39" s="170"/>
-      <c r="O39" s="170"/>
-      <c r="P39" s="170"/>
-      <c r="Q39" s="170"/>
-      <c r="R39" s="175" t="s">
+      <c r="M39" s="175"/>
+      <c r="N39" s="175"/>
+      <c r="O39" s="175"/>
+      <c r="P39" s="175"/>
+      <c r="Q39" s="175"/>
+      <c r="R39" s="180" t="s">
         <v>117</v>
       </c>
-      <c r="S39" s="175"/>
-      <c r="T39" s="175"/>
-      <c r="U39" s="175"/>
-      <c r="V39" s="175"/>
-      <c r="W39" s="175"/>
+      <c r="S39" s="180"/>
+      <c r="T39" s="180"/>
+      <c r="U39" s="180"/>
+      <c r="V39" s="180"/>
+      <c r="W39" s="180"/>
       <c r="X39" s="15"/>
       <c r="Z39" s="15"/>
       <c r="AA39" s="15"/>
@@ -26838,25 +26858,25 @@
       <c r="F40" s="87"/>
       <c r="G40" s="87"/>
       <c r="H40" s="87"/>
-      <c r="I40" s="174"/>
-      <c r="J40" s="174"/>
-      <c r="K40" s="174"/>
-      <c r="L40" s="171" t="s">
+      <c r="I40" s="179"/>
+      <c r="J40" s="179"/>
+      <c r="K40" s="179"/>
+      <c r="L40" s="176" t="s">
         <v>116</v>
       </c>
-      <c r="M40" s="171"/>
-      <c r="N40" s="171"/>
-      <c r="O40" s="171"/>
-      <c r="P40" s="171"/>
-      <c r="Q40" s="171"/>
-      <c r="R40" s="176" t="s">
+      <c r="M40" s="176"/>
+      <c r="N40" s="176"/>
+      <c r="O40" s="176"/>
+      <c r="P40" s="176"/>
+      <c r="Q40" s="176"/>
+      <c r="R40" s="181" t="s">
         <v>118</v>
       </c>
-      <c r="S40" s="177"/>
-      <c r="T40" s="177"/>
-      <c r="U40" s="177"/>
-      <c r="V40" s="177"/>
-      <c r="W40" s="177"/>
+      <c r="S40" s="182"/>
+      <c r="T40" s="182"/>
+      <c r="U40" s="182"/>
+      <c r="V40" s="182"/>
+      <c r="W40" s="182"/>
       <c r="X40" s="15"/>
       <c r="Z40" s="15"/>
       <c r="AA40" s="15"/>
@@ -26872,25 +26892,25 @@
       <c r="F41" s="87"/>
       <c r="G41" s="87"/>
       <c r="H41" s="87"/>
-      <c r="I41" s="174"/>
-      <c r="J41" s="174"/>
-      <c r="K41" s="174"/>
-      <c r="L41" s="172" t="s">
+      <c r="I41" s="179"/>
+      <c r="J41" s="179"/>
+      <c r="K41" s="179"/>
+      <c r="L41" s="177" t="s">
         <v>34</v>
       </c>
-      <c r="M41" s="172"/>
-      <c r="N41" s="172"/>
-      <c r="O41" s="172"/>
-      <c r="P41" s="172"/>
-      <c r="Q41" s="172"/>
-      <c r="R41" s="172" t="s">
+      <c r="M41" s="177"/>
+      <c r="N41" s="177"/>
+      <c r="O41" s="177"/>
+      <c r="P41" s="177"/>
+      <c r="Q41" s="177"/>
+      <c r="R41" s="177" t="s">
         <v>34</v>
       </c>
-      <c r="S41" s="172"/>
-      <c r="T41" s="172"/>
-      <c r="U41" s="172"/>
-      <c r="V41" s="172"/>
-      <c r="W41" s="172"/>
+      <c r="S41" s="177"/>
+      <c r="T41" s="177"/>
+      <c r="U41" s="177"/>
+      <c r="V41" s="177"/>
+      <c r="W41" s="177"/>
       <c r="X41" s="15"/>
       <c r="Z41" s="15"/>
       <c r="AA41" s="15"/>
@@ -26906,30 +26926,30 @@
       <c r="F42" s="87"/>
       <c r="G42" s="87"/>
       <c r="H42" s="87"/>
-      <c r="I42" s="168">
+      <c r="I42" s="173">
         <f>'Biên bản'!AC5</f>
         <v>1</v>
       </c>
-      <c r="J42" s="168"/>
-      <c r="K42" s="168"/>
-      <c r="L42" s="169">
+      <c r="J42" s="173"/>
+      <c r="K42" s="173"/>
+      <c r="L42" s="174">
         <f>ĐKĐBĐ!C4</f>
         <v>1000</v>
       </c>
-      <c r="M42" s="169"/>
-      <c r="N42" s="169"/>
-      <c r="O42" s="169"/>
-      <c r="P42" s="169"/>
-      <c r="Q42" s="169"/>
-      <c r="R42" s="167">
+      <c r="M42" s="174"/>
+      <c r="N42" s="174"/>
+      <c r="O42" s="174"/>
+      <c r="P42" s="174"/>
+      <c r="Q42" s="174"/>
+      <c r="R42" s="172">
         <f>ĐKĐBĐ!H4</f>
         <v>-8.779847188407075E-4</v>
       </c>
-      <c r="S42" s="167"/>
-      <c r="T42" s="167"/>
-      <c r="U42" s="167"/>
-      <c r="V42" s="167"/>
-      <c r="W42" s="167"/>
+      <c r="S42" s="172"/>
+      <c r="T42" s="172"/>
+      <c r="U42" s="172"/>
+      <c r="V42" s="172"/>
+      <c r="W42" s="172"/>
       <c r="X42" s="15"/>
       <c r="Y42" s="15"/>
       <c r="Z42" s="15"/>
@@ -27005,7 +27025,7 @@
       <c r="R44" s="6"/>
       <c r="S44" s="96" t="str">
         <f>'Biên bản'!L46</f>
-        <v>U = (0,03+0,01L) mm; [L]:m</v>
+        <v>U = (0.03+0.01L) mm; [L]:m</v>
       </c>
       <c r="U44" s="96"/>
       <c r="V44" s="96"/>
@@ -27243,15 +27263,15 @@
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
-      <c r="T51" s="136" t="s">
+      <c r="T51" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="U51" s="136"/>
-      <c r="V51" s="136"/>
-      <c r="W51" s="136"/>
-      <c r="X51" s="136"/>
-      <c r="Y51" s="136"/>
-      <c r="Z51" s="136"/>
+      <c r="U51" s="135"/>
+      <c r="V51" s="135"/>
+      <c r="W51" s="135"/>
+      <c r="X51" s="135"/>
+      <c r="Y51" s="135"/>
+      <c r="Z51" s="135"/>
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
@@ -27271,15 +27291,15 @@
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
       <c r="S52" s="1"/>
-      <c r="T52" s="182" t="s">
+      <c r="T52" s="167" t="s">
         <v>103</v>
       </c>
-      <c r="U52" s="182"/>
-      <c r="V52" s="182"/>
-      <c r="W52" s="182"/>
-      <c r="X52" s="182"/>
-      <c r="Y52" s="182"/>
-      <c r="Z52" s="182"/>
+      <c r="U52" s="167"/>
+      <c r="V52" s="167"/>
+      <c r="W52" s="167"/>
+      <c r="X52" s="167"/>
+      <c r="Y52" s="167"/>
+      <c r="Z52" s="167"/>
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
     </row>
@@ -27297,16 +27317,16 @@
     <row r="54" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="T56" s="132" t="str">
+      <c r="T56" s="139" t="str">
         <f>'Biên bản'!J22</f>
         <v>Trần Nam Anh</v>
       </c>
-      <c r="U56" s="132"/>
-      <c r="V56" s="132"/>
-      <c r="W56" s="132"/>
-      <c r="X56" s="132"/>
-      <c r="Y56" s="132"/>
-      <c r="Z56" s="132"/>
+      <c r="U56" s="139"/>
+      <c r="V56" s="139"/>
+      <c r="W56" s="139"/>
+      <c r="X56" s="139"/>
+      <c r="Y56" s="139"/>
+      <c r="Z56" s="139"/>
     </row>
     <row r="57" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -27785,11 +27805,6 @@
     <row r="531" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="T51:Z51"/>
-    <mergeCell ref="T52:Z52"/>
-    <mergeCell ref="T56:Z56"/>
-    <mergeCell ref="D34:K34"/>
-    <mergeCell ref="H24:U24"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="H23:U23"/>
     <mergeCell ref="J7:P7"/>
@@ -27797,6 +27812,11 @@
     <mergeCell ref="B16:O16"/>
     <mergeCell ref="N5:W5"/>
     <mergeCell ref="H17:AC17"/>
+    <mergeCell ref="T51:Z51"/>
+    <mergeCell ref="T52:Z52"/>
+    <mergeCell ref="T56:Z56"/>
+    <mergeCell ref="D34:K34"/>
+    <mergeCell ref="H24:U24"/>
     <mergeCell ref="R42:W42"/>
     <mergeCell ref="I42:K42"/>
     <mergeCell ref="L42:Q42"/>
@@ -27875,22 +27895,22 @@
   <sheetData>
     <row r="1" spans="1:43" s="119" customFormat="1" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:43" s="39" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="188" t="s">
+      <c r="A2" s="191" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="184" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="193" t="s">
+      <c r="C2" s="195" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="194"/>
-      <c r="E2" s="192" t="s">
+      <c r="D2" s="196"/>
+      <c r="E2" s="184" t="s">
         <v>156</v>
       </c>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
-      <c r="H2" s="192" t="s">
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184" t="s">
         <v>162</v>
       </c>
       <c r="I2" s="106" t="s">
@@ -27905,11 +27925,11 @@
       <c r="L2" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="M2" s="189" t="s">
+      <c r="M2" s="192" t="s">
         <v>63</v>
       </c>
-      <c r="N2" s="190"/>
-      <c r="O2" s="191"/>
+      <c r="N2" s="193"/>
+      <c r="O2" s="194"/>
       <c r="P2" s="185" t="s">
         <v>64</v>
       </c>
@@ -27935,7 +27955,7 @@
       </c>
       <c r="AC2" s="186"/>
       <c r="AD2" s="187"/>
-      <c r="AE2" s="195" t="s">
+      <c r="AE2" s="197" t="s">
         <v>180</v>
       </c>
       <c r="AF2" s="119"/>
@@ -27947,8 +27967,8 @@
       <c r="AL2" s="40"/>
     </row>
     <row r="3" spans="1:43" s="120" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="188"/>
-      <c r="B3" s="192"/>
+      <c r="A3" s="191"/>
+      <c r="B3" s="184"/>
       <c r="C3" s="106" t="s">
         <v>157</v>
       </c>
@@ -27964,7 +27984,7 @@
       <c r="G3" s="106" t="s">
         <v>159</v>
       </c>
-      <c r="H3" s="192"/>
+      <c r="H3" s="184"/>
       <c r="I3" s="107" t="s">
         <v>148</v>
       </c>
@@ -28025,7 +28045,7 @@
       <c r="AD3" s="105" t="s">
         <v>177</v>
       </c>
-      <c r="AE3" s="196"/>
+      <c r="AE3" s="198"/>
       <c r="AF3" s="119"/>
       <c r="AG3" s="119"/>
       <c r="AH3" s="119"/>
@@ -28182,21 +28202,21 @@
       <c r="AJ6" s="186"/>
       <c r="AK6" s="186"/>
       <c r="AL6" s="187"/>
-      <c r="AN6" s="129" t="s">
+      <c r="AN6" s="163" t="s">
         <v>173</v>
       </c>
-      <c r="AO6" s="129"/>
-      <c r="AP6" s="129"/>
-      <c r="AQ6" s="129"/>
+      <c r="AO6" s="163"/>
+      <c r="AP6" s="163"/>
+      <c r="AQ6" s="163"/>
     </row>
     <row r="7" spans="1:43" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D7" s="123"/>
       <c r="AE7" s="119"/>
-      <c r="AG7" s="192" t="s">
+      <c r="AG7" s="184" t="s">
         <v>28</v>
       </c>
-      <c r="AH7" s="192"/>
-      <c r="AI7" s="192"/>
+      <c r="AH7" s="184"/>
+      <c r="AI7" s="184"/>
       <c r="AJ7" s="106" t="s">
         <v>29</v>
       </c>
@@ -28213,17 +28233,17 @@
       <c r="AP7" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="AQ7" s="183" t="s">
+      <c r="AQ7" s="199" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:43" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AE8" s="119"/>
-      <c r="AG8" s="198" t="s">
+      <c r="AG8" s="188" t="s">
         <v>170</v>
       </c>
-      <c r="AH8" s="199"/>
-      <c r="AI8" s="200"/>
+      <c r="AH8" s="189"/>
+      <c r="AI8" s="190"/>
       <c r="AJ8" s="107" t="s">
         <v>171</v>
       </c>
@@ -28240,15 +28260,15 @@
       <c r="AP8" s="107" t="s">
         <v>172</v>
       </c>
-      <c r="AQ8" s="184"/>
+      <c r="AQ8" s="200"/>
     </row>
     <row r="9" spans="1:43" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AE9" s="119"/>
-      <c r="AG9" s="197" t="s">
+      <c r="AG9" s="183" t="s">
         <v>121</v>
       </c>
-      <c r="AH9" s="197"/>
-      <c r="AI9" s="197"/>
+      <c r="AH9" s="183"/>
+      <c r="AI9" s="183"/>
       <c r="AJ9" s="44">
         <f>'Biên bản'!V11</f>
         <v>11.5</v>
@@ -28273,11 +28293,11 @@
     </row>
     <row r="10" spans="1:43" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AE10" s="119"/>
-      <c r="AG10" s="197" t="s">
+      <c r="AG10" s="183" t="s">
         <v>166</v>
       </c>
-      <c r="AH10" s="197"/>
-      <c r="AI10" s="197"/>
+      <c r="AH10" s="183"/>
+      <c r="AI10" s="183"/>
       <c r="AJ10" s="44" t="str">
         <f>LEFT('Biên bản'!L21,1)</f>
         <v>1</v>
@@ -28289,11 +28309,11 @@
     </row>
     <row r="11" spans="1:43" s="7" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AE11" s="119"/>
-      <c r="AG11" s="197" t="s">
+      <c r="AG11" s="183" t="s">
         <v>167</v>
       </c>
-      <c r="AH11" s="197"/>
-      <c r="AI11" s="197"/>
+      <c r="AH11" s="183"/>
+      <c r="AI11" s="183"/>
       <c r="AJ11" s="44">
         <v>0.1</v>
       </c>
@@ -28308,7 +28328,7 @@
       </c>
       <c r="AJ12" s="2" t="str">
         <f>"U = ("&amp;AB4&amp;"+"&amp;AC4&amp;"L) mm; [L]:m"</f>
-        <v>U = (0,03+0,01L) mm; [L]:m</v>
+        <v>U = (0.03+0.01L) mm; [L]:m</v>
       </c>
     </row>
     <row r="13" spans="1:43" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -28382,6 +28402,16 @@
     <row r="49" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AQ7:AQ8"/>
+    <mergeCell ref="AN6:AQ6"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="AE2:AE3"/>
     <mergeCell ref="AG11:AI11"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="E2:G2"/>
@@ -28392,16 +28422,6 @@
     <mergeCell ref="AG6:AL6"/>
     <mergeCell ref="S2:U2"/>
     <mergeCell ref="AG8:AI8"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AQ7:AQ8"/>
-    <mergeCell ref="AN6:AQ6"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -28503,11 +28523,11 @@
       <c r="H4" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="I4" s="129" t="s">
+      <c r="I4" s="163" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="129"/>
-      <c r="K4" s="129"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163"/>
       <c r="L4" s="48" t="s">
         <v>81</v>
       </c>
